--- a/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Obj.xlsx
+++ b/PTBR-COM-PORTRAIT/Lang/PTBR/Game/Obj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7145FFA7-9A80-4F73-BF6B-F9021D740EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A285B34A-173E-4341-AD13-053C1F7B10A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Obj" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="579">
   <si>
     <t>id</t>
   </si>
@@ -1168,321 +1168,9 @@
     <t>EA 23.107</t>
   </si>
   <si>
-    <t xml:space="preserve">Momiji  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flor  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flor Azul  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flor Amarela  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flor Branca  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erva Daninha  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cogumelo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafflesia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seixo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristal  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedra  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Árvore de Cogumelos  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Árvore de Natal  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cacto  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Árvore Palulu  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minério  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minério de Gemas  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lírio-d'Água  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suporte de Parede  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Janela  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moldura de Parede  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estrada  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trilho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abismo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estrada de Pedra  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destroço  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trigo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabanete  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teste  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repolho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomate  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cenoura  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inhame  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estrada Estreita  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedaço  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninho de Pássaro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baga  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grande Pedra  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osso  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abeto  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cedro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bétula  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinheiro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carvalho  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Árvore Queimada  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Musgo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbusto de Videira  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Árvore Fóssil Decomposta  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Árvore Fóssil  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grande Árvore Fóssil  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fóssil Decomposto  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolardo  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Árvore de Mogno  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Árvore de Acácia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toco  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alga  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concha  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coral  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salgueiro  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerejeira  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uva  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monte de Folhas Caídas  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para Teste  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algodão  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remanescente  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monte  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arroz  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linha Branca  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruta Arco-Íris  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocha de Sal  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borda  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estalagmite  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Árvore Decomposta  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parede Decomposta  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanchagem  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocha Enorme  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocha de Enxofre  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bambu  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Api  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pasto  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Químicos  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grama Prateada  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detritos  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esteira Transportadora  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fragmentos  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bananeira  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laranjeira  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pereira  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grama Vermelha  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grama Azul  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grama Roxa  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Árvore de Feywood  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samambaia  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Café  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabaco  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 3  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 4  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 5  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 6  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 7  </t>
-  </si>
-  <si>
     <t>Árvore de Maçã</t>
   </si>
   <si>
-    <t xml:space="preserve">Piso Rachado  </t>
-  </si>
-  <si>
     <t>Árvore de Madeira de Coral</t>
   </si>
   <si>
@@ -1498,9 +1186,6 @@
     <t xml:space="preserve">fish silhouette </t>
   </si>
   <si>
-    <t xml:space="preserve">Silhueta de Peixe    </t>
-  </si>
-  <si>
     <t>Telhado 8</t>
   </si>
   <si>
@@ -1660,42 +1345,6 @@
     <t>カボチ</t>
   </si>
   <si>
-    <t xml:space="preserve">Telhado 10  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grama Verde  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 11  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 12  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 13  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 14  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 15  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 16  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telhado 17  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linha Neon  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recife De Coral  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alga Marinha Profunda  </t>
-  </si>
-  <si>
     <t>Cabocchi</t>
   </si>
   <si>
@@ -1750,19 +1399,367 @@
     <t>竜骨</t>
   </si>
   <si>
-    <t>girassol</t>
-  </si>
-  <si>
-    <t>túlipa</t>
-  </si>
-  <si>
-    <t>pimenta vermelha</t>
-  </si>
-  <si>
     <t>monte de ossos</t>
   </si>
   <si>
-    <t>osso</t>
+    <t>Túlipa</t>
+  </si>
+  <si>
+    <t>Pimenta Vermelha</t>
+  </si>
+  <si>
+    <t>Girassol</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Algodão</t>
+  </si>
+  <si>
+    <t>Alga Marinha Profunda</t>
+  </si>
+  <si>
+    <t>Abeto</t>
+  </si>
+  <si>
+    <t>Abismo</t>
+  </si>
+  <si>
+    <t>Alga</t>
+  </si>
+  <si>
+    <t>Arbusto de Videira</t>
+  </si>
+  <si>
+    <t>Arroz</t>
+  </si>
+  <si>
+    <t>Árvore de Acácia</t>
+  </si>
+  <si>
+    <t>Árvore de Cogumelos</t>
+  </si>
+  <si>
+    <t>Árvore de Feywood</t>
+  </si>
+  <si>
+    <t>Árvore de Mogno</t>
+  </si>
+  <si>
+    <t>Árvore de Natal</t>
+  </si>
+  <si>
+    <t>Árvore Decomposta</t>
+  </si>
+  <si>
+    <t>Árvore Fóssil</t>
+  </si>
+  <si>
+    <t>Árvore Fóssil Decomposta</t>
+  </si>
+  <si>
+    <t>Árvore Palulu</t>
+  </si>
+  <si>
+    <t>Árvore Queimada</t>
+  </si>
+  <si>
+    <t>Baga</t>
+  </si>
+  <si>
+    <t>Bambu</t>
+  </si>
+  <si>
+    <t>Bananeira</t>
+  </si>
+  <si>
+    <t>Bétula</t>
+  </si>
+  <si>
+    <t>Bolardo</t>
+  </si>
+  <si>
+    <t>Borda</t>
+  </si>
+  <si>
+    <t>Cacto</t>
+  </si>
+  <si>
+    <t>Café</t>
+  </si>
+  <si>
+    <t>Carvalho</t>
+  </si>
+  <si>
+    <t>Cedro</t>
+  </si>
+  <si>
+    <t>Cenoura</t>
+  </si>
+  <si>
+    <t>Cerejeira</t>
+  </si>
+  <si>
+    <t>Cogumelo</t>
+  </si>
+  <si>
+    <t>Concha</t>
+  </si>
+  <si>
+    <t>Coral</t>
+  </si>
+  <si>
+    <t>Cristal</t>
+  </si>
+  <si>
+    <t>Destroço</t>
+  </si>
+  <si>
+    <t>Detritos</t>
+  </si>
+  <si>
+    <t>Erva Daninha</t>
+  </si>
+  <si>
+    <t>Estalagmite</t>
+  </si>
+  <si>
+    <t>Esteira Transportadora</t>
+  </si>
+  <si>
+    <t>Estrada</t>
+  </si>
+  <si>
+    <t>Estrada de Pedra</t>
+  </si>
+  <si>
+    <t>Estrada Estreita</t>
+  </si>
+  <si>
+    <t>Flor</t>
+  </si>
+  <si>
+    <t>Flor Amarela</t>
+  </si>
+  <si>
+    <t>Flor Azul</t>
+  </si>
+  <si>
+    <t>Flor Branca</t>
+  </si>
+  <si>
+    <t>Fóssil Decomposto</t>
+  </si>
+  <si>
+    <t>Fragmentos</t>
+  </si>
+  <si>
+    <t>Fruta Arco-Íris</t>
+  </si>
+  <si>
+    <t>Grama Azul</t>
+  </si>
+  <si>
+    <t>Grama Prateada</t>
+  </si>
+  <si>
+    <t>Grama Roxa</t>
+  </si>
+  <si>
+    <t>Grama Verde</t>
+  </si>
+  <si>
+    <t>Grama Vermelha</t>
+  </si>
+  <si>
+    <t>Grande Árvore Fóssil</t>
+  </si>
+  <si>
+    <t>Grande Pedra</t>
+  </si>
+  <si>
+    <t>Inhame</t>
+  </si>
+  <si>
+    <t>Janela</t>
+  </si>
+  <si>
+    <t>Laranjeira</t>
+  </si>
+  <si>
+    <t>Linha Branca</t>
+  </si>
+  <si>
+    <t>Linha Neon</t>
+  </si>
+  <si>
+    <t>Lírio-d'Água</t>
+  </si>
+  <si>
+    <t>Milho</t>
+  </si>
+  <si>
+    <t>Minério</t>
+  </si>
+  <si>
+    <t>Minério de Gemas</t>
+  </si>
+  <si>
+    <t>Moldura de Parede</t>
+  </si>
+  <si>
+    <t>Momiji</t>
+  </si>
+  <si>
+    <t>Monte</t>
+  </si>
+  <si>
+    <t>Monte de Folhas Caídas</t>
+  </si>
+  <si>
+    <t>Musgo</t>
+  </si>
+  <si>
+    <t>Ninho de Pássaro</t>
+  </si>
+  <si>
+    <t>Osso</t>
+  </si>
+  <si>
+    <t>Para Teste</t>
+  </si>
+  <si>
+    <t>Parede Decomposta</t>
+  </si>
+  <si>
+    <t>Pasto</t>
+  </si>
+  <si>
+    <t>Pedaço</t>
+  </si>
+  <si>
+    <t>Pedra</t>
+  </si>
+  <si>
+    <t>Pereira</t>
+  </si>
+  <si>
+    <t>Pinheiro</t>
+  </si>
+  <si>
+    <t>Piso Rachado</t>
+  </si>
+  <si>
+    <t>Químicos</t>
+  </si>
+  <si>
+    <t>Rabanete</t>
+  </si>
+  <si>
+    <t>Rafflesia</t>
+  </si>
+  <si>
+    <t>Recife De Coral</t>
+  </si>
+  <si>
+    <t>Remanescente</t>
+  </si>
+  <si>
+    <t>Repolho</t>
+  </si>
+  <si>
+    <t>Rocha de Enxofre</t>
+  </si>
+  <si>
+    <t>Rocha de Sal</t>
+  </si>
+  <si>
+    <t>Rocha Enorme</t>
+  </si>
+  <si>
+    <t>Salgueiro</t>
+  </si>
+  <si>
+    <t>Samambaia</t>
+  </si>
+  <si>
+    <t>Seixo</t>
+  </si>
+  <si>
+    <t>Silhueta de Peixe</t>
+  </si>
+  <si>
+    <t>Suporte de Parede</t>
+  </si>
+  <si>
+    <t>Tabaco</t>
+  </si>
+  <si>
+    <t>Tanchagem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telhado </t>
+  </si>
+  <si>
+    <t>Telhado 10</t>
+  </si>
+  <si>
+    <t>Telhado 11</t>
+  </si>
+  <si>
+    <t>Telhado 12</t>
+  </si>
+  <si>
+    <t>Telhado 13</t>
+  </si>
+  <si>
+    <t>Telhado 14</t>
+  </si>
+  <si>
+    <t>Telhado 15</t>
+  </si>
+  <si>
+    <t>Telhado 16</t>
+  </si>
+  <si>
+    <t>Telhado 17</t>
+  </si>
+  <si>
+    <t>Telhado 2</t>
+  </si>
+  <si>
+    <t>Telhado 3</t>
+  </si>
+  <si>
+    <t>Telhado 4</t>
+  </si>
+  <si>
+    <t>Telhado 5</t>
+  </si>
+  <si>
+    <t>Telhado 6</t>
+  </si>
+  <si>
+    <t>Telhado 7</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>Toco</t>
+  </si>
+  <si>
+    <t>Tomate</t>
+  </si>
+  <si>
+    <t>Trigo</t>
+  </si>
+  <si>
+    <t>Trilho</t>
+  </si>
+  <si>
+    <t>Uva</t>
   </si>
 </sst>
 </file>
@@ -2144,7 +2141,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C142" sqref="C142:C146"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,7 +2187,7 @@
         <v>353</v>
       </c>
       <c r="C3" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="D3" t="s">
         <v>164</v>
@@ -2207,7 +2204,7 @@
         <v>353</v>
       </c>
       <c r="C4" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
       <c r="D4" t="s">
         <v>102</v>
@@ -2224,7 +2221,7 @@
         <v>353</v>
       </c>
       <c r="C5" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="D5" t="s">
         <v>219</v>
@@ -2235,19 +2232,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>538</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s">
-        <v>535</v>
+        <v>430</v>
       </c>
       <c r="C6" t="s">
-        <v>556</v>
+        <v>464</v>
       </c>
       <c r="D6" t="s">
-        <v>539</v>
+        <v>434</v>
       </c>
       <c r="E6" t="s">
-        <v>540</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2258,7 +2255,7 @@
         <v>361</v>
       </c>
       <c r="C7" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="D7" t="s">
         <v>242</v>
@@ -2275,7 +2272,7 @@
         <v>369</v>
       </c>
       <c r="C8" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D8" t="s">
         <v>295</v>
@@ -2292,7 +2289,7 @@
         <v>353</v>
       </c>
       <c r="C9" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="D9" t="s">
         <v>185</v>
@@ -2309,7 +2306,7 @@
         <v>363</v>
       </c>
       <c r="C10" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="D10" t="s">
         <v>255</v>
@@ -2326,7 +2323,7 @@
         <v>353</v>
       </c>
       <c r="C11" t="s">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="D11" t="s">
         <v>210</v>
@@ -2343,7 +2340,7 @@
         <v>353</v>
       </c>
       <c r="C12" t="s">
-        <v>392</v>
+        <v>471</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
@@ -2360,7 +2357,7 @@
         <v>353</v>
       </c>
       <c r="C13" t="s">
-        <v>392</v>
+        <v>471</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
@@ -2377,7 +2374,7 @@
         <v>353</v>
       </c>
       <c r="C14" t="s">
-        <v>392</v>
+        <v>471</v>
       </c>
       <c r="D14" t="s">
         <v>43</v>
@@ -2394,7 +2391,7 @@
         <v>376</v>
       </c>
       <c r="C15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D15" t="s">
         <v>335</v>
@@ -2411,7 +2408,7 @@
         <v>359</v>
       </c>
       <c r="C16" t="s">
-        <v>484</v>
+        <v>381</v>
       </c>
       <c r="D16" t="s">
         <v>149</v>
@@ -2428,7 +2425,7 @@
         <v>377</v>
       </c>
       <c r="C17" t="s">
-        <v>486</v>
+        <v>382</v>
       </c>
       <c r="D17" t="s">
         <v>338</v>
@@ -2445,7 +2442,7 @@
         <v>353</v>
       </c>
       <c r="C18" t="s">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="D18" t="s">
         <v>207</v>
@@ -2462,7 +2459,7 @@
         <v>353</v>
       </c>
       <c r="C19" t="s">
-        <v>393</v>
+        <v>474</v>
       </c>
       <c r="D19" t="s">
         <v>46</v>
@@ -2479,7 +2476,7 @@
         <v>368</v>
       </c>
       <c r="C20" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="D20" t="s">
         <v>273</v>
@@ -2496,7 +2493,7 @@
         <v>353</v>
       </c>
       <c r="C21" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="D21" t="s">
         <v>191</v>
@@ -2513,7 +2510,7 @@
         <v>353</v>
       </c>
       <c r="C22" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="D22" t="s">
         <v>188</v>
@@ -2530,7 +2527,7 @@
         <v>353</v>
       </c>
       <c r="C23" t="s">
-        <v>395</v>
+        <v>478</v>
       </c>
       <c r="D23" t="s">
         <v>57</v>
@@ -2547,7 +2544,7 @@
         <v>353</v>
       </c>
       <c r="C24" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="D24" t="s">
         <v>179</v>
@@ -2564,7 +2561,7 @@
         <v>354</v>
       </c>
       <c r="C25" t="s">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="D25" t="s">
         <v>152</v>
@@ -2581,7 +2578,7 @@
         <v>356</v>
       </c>
       <c r="C26" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="D26" t="s">
         <v>292</v>
@@ -2598,7 +2595,7 @@
         <v>359</v>
       </c>
       <c r="C27" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="D27" t="s">
         <v>317</v>
@@ -2615,7 +2612,7 @@
         <v>353</v>
       </c>
       <c r="C28" t="s">
-        <v>423</v>
+        <v>483</v>
       </c>
       <c r="D28" t="s">
         <v>170</v>
@@ -2632,7 +2629,7 @@
         <v>353</v>
       </c>
       <c r="C29" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="D29" t="s">
         <v>200</v>
@@ -2649,7 +2646,7 @@
         <v>366</v>
       </c>
       <c r="C30" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="D30" t="s">
         <v>267</v>
@@ -2660,19 +2657,19 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>541</v>
+        <v>436</v>
       </c>
       <c r="B31" t="s">
-        <v>542</v>
+        <v>437</v>
       </c>
       <c r="C31" t="s">
-        <v>557</v>
+        <v>440</v>
       </c>
       <c r="D31" t="s">
-        <v>543</v>
+        <v>438</v>
       </c>
       <c r="E31" t="s">
-        <v>544</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2683,7 +2680,7 @@
         <v>353</v>
       </c>
       <c r="C32" t="s">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="D32" t="s">
         <v>54</v>
@@ -2700,7 +2697,7 @@
         <v>379</v>
       </c>
       <c r="C33" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="D33" t="s">
         <v>345</v>
@@ -2717,7 +2714,7 @@
         <v>353</v>
       </c>
       <c r="C34" t="s">
-        <v>425</v>
+        <v>488</v>
       </c>
       <c r="D34" t="s">
         <v>176</v>
@@ -2734,7 +2731,7 @@
         <v>353</v>
       </c>
       <c r="C35" t="s">
-        <v>422</v>
+        <v>489</v>
       </c>
       <c r="D35" t="s">
         <v>167</v>
@@ -2751,7 +2748,7 @@
         <v>358</v>
       </c>
       <c r="C36" t="s">
-        <v>412</v>
+        <v>490</v>
       </c>
       <c r="D36" t="s">
         <v>126</v>
@@ -2768,7 +2765,7 @@
         <v>353</v>
       </c>
       <c r="C37" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="D37" t="s">
         <v>231</v>
@@ -2785,7 +2782,7 @@
         <v>353</v>
       </c>
       <c r="C38" t="s">
-        <v>387</v>
+        <v>492</v>
       </c>
       <c r="D38" t="s">
         <v>27</v>
@@ -2802,7 +2799,7 @@
         <v>353</v>
       </c>
       <c r="C39" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="D39" t="s">
         <v>222</v>
@@ -2819,7 +2816,7 @@
         <v>353</v>
       </c>
       <c r="C40" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="D40" t="s">
         <v>225</v>
@@ -2836,7 +2833,7 @@
         <v>354</v>
       </c>
       <c r="C41" t="s">
-        <v>487</v>
+        <v>383</v>
       </c>
       <c r="D41" t="s">
         <v>49</v>
@@ -2853,7 +2850,7 @@
         <v>353</v>
       </c>
       <c r="C42" t="s">
-        <v>390</v>
+        <v>495</v>
       </c>
       <c r="D42" t="s">
         <v>37</v>
@@ -2870,7 +2867,7 @@
         <v>353</v>
       </c>
       <c r="C43" t="s">
-        <v>406</v>
+        <v>496</v>
       </c>
       <c r="D43" t="s">
         <v>108</v>
@@ -2887,7 +2884,7 @@
         <v>362</v>
       </c>
       <c r="C44" t="s">
-        <v>406</v>
+        <v>496</v>
       </c>
       <c r="D44" t="s">
         <v>108</v>
@@ -2904,7 +2901,7 @@
         <v>357</v>
       </c>
       <c r="C45" t="s">
-        <v>406</v>
+        <v>496</v>
       </c>
       <c r="D45" t="s">
         <v>108</v>
@@ -2921,7 +2918,7 @@
         <v>357</v>
       </c>
       <c r="C46" t="s">
-        <v>406</v>
+        <v>496</v>
       </c>
       <c r="D46" t="s">
         <v>108</v>
@@ -2938,7 +2935,7 @@
         <v>357</v>
       </c>
       <c r="C47" t="s">
-        <v>406</v>
+        <v>496</v>
       </c>
       <c r="D47" t="s">
         <v>108</v>
@@ -2955,7 +2952,7 @@
         <v>357</v>
       </c>
       <c r="C48" t="s">
-        <v>406</v>
+        <v>496</v>
       </c>
       <c r="D48" t="s">
         <v>108</v>
@@ -2972,7 +2969,7 @@
         <v>373</v>
       </c>
       <c r="C49" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="D49" t="s">
         <v>308</v>
@@ -2989,7 +2986,7 @@
         <v>353</v>
       </c>
       <c r="C50" t="s">
-        <v>386</v>
+        <v>498</v>
       </c>
       <c r="D50" t="s">
         <v>24</v>
@@ -3006,7 +3003,7 @@
         <v>353</v>
       </c>
       <c r="C51" t="s">
-        <v>386</v>
+        <v>498</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
@@ -3023,7 +3020,7 @@
         <v>367</v>
       </c>
       <c r="C52" t="s">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="D52" t="s">
         <v>270</v>
@@ -3040,7 +3037,7 @@
         <v>372</v>
       </c>
       <c r="C53" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="D53" t="s">
         <v>311</v>
@@ -3057,7 +3054,7 @@
         <v>353</v>
       </c>
       <c r="C54" t="s">
-        <v>402</v>
+        <v>501</v>
       </c>
       <c r="D54" t="s">
         <v>81</v>
@@ -3074,7 +3071,7 @@
         <v>353</v>
       </c>
       <c r="C55" t="s">
-        <v>402</v>
+        <v>501</v>
       </c>
       <c r="D55" t="s">
         <v>81</v>
@@ -3091,7 +3088,7 @@
         <v>353</v>
       </c>
       <c r="C56" t="s">
-        <v>405</v>
+        <v>502</v>
       </c>
       <c r="D56" t="s">
         <v>105</v>
@@ -3108,7 +3105,7 @@
         <v>353</v>
       </c>
       <c r="C57" t="s">
-        <v>415</v>
+        <v>503</v>
       </c>
       <c r="D57" t="s">
         <v>137</v>
@@ -3125,7 +3122,7 @@
         <v>353</v>
       </c>
       <c r="C58" t="s">
-        <v>382</v>
+        <v>504</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
@@ -3142,7 +3139,7 @@
         <v>353</v>
       </c>
       <c r="C59" t="s">
-        <v>384</v>
+        <v>505</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
@@ -3159,7 +3156,7 @@
         <v>353</v>
       </c>
       <c r="C60" t="s">
-        <v>383</v>
+        <v>506</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
@@ -3176,7 +3173,7 @@
         <v>353</v>
       </c>
       <c r="C61" t="s">
-        <v>385</v>
+        <v>507</v>
       </c>
       <c r="D61" t="s">
         <v>21</v>
@@ -3193,7 +3190,7 @@
         <v>378</v>
       </c>
       <c r="C62" t="s">
-        <v>385</v>
+        <v>507</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
@@ -3210,7 +3207,7 @@
         <v>353</v>
       </c>
       <c r="C63" t="s">
-        <v>432</v>
+        <v>508</v>
       </c>
       <c r="D63" t="s">
         <v>197</v>
@@ -3227,7 +3224,7 @@
         <v>372</v>
       </c>
       <c r="C64" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="D64" t="s">
         <v>314</v>
@@ -3244,7 +3241,7 @@
         <v>365</v>
       </c>
       <c r="C65" t="s">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="D65" t="s">
         <v>261</v>
@@ -3255,19 +3252,19 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>558</v>
+        <v>441</v>
       </c>
       <c r="B66" t="s">
-        <v>559</v>
+        <v>442</v>
       </c>
       <c r="C66" t="s">
-        <v>575</v>
+        <v>461</v>
       </c>
       <c r="D66" t="s">
-        <v>560</v>
+        <v>443</v>
       </c>
       <c r="E66" t="s">
-        <v>561</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3278,7 +3275,7 @@
         <v>374</v>
       </c>
       <c r="C67" t="s">
-        <v>471</v>
+        <v>511</v>
       </c>
       <c r="D67" t="s">
         <v>329</v>
@@ -3295,7 +3292,7 @@
         <v>371</v>
       </c>
       <c r="C68" t="s">
-        <v>463</v>
+        <v>512</v>
       </c>
       <c r="D68" t="s">
         <v>305</v>
@@ -3312,7 +3309,7 @@
         <v>375</v>
       </c>
       <c r="C69" t="s">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="D69" t="s">
         <v>332</v>
@@ -3323,19 +3320,19 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>502</v>
+        <v>397</v>
       </c>
       <c r="B70" t="s">
-        <v>499</v>
+        <v>394</v>
       </c>
       <c r="C70" t="s">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="D70" t="s">
-        <v>503</v>
+        <v>398</v>
       </c>
       <c r="E70" t="s">
-        <v>504</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3346,7 +3343,7 @@
         <v>374</v>
       </c>
       <c r="C71" t="s">
-        <v>470</v>
+        <v>515</v>
       </c>
       <c r="D71" t="s">
         <v>326</v>
@@ -3363,7 +3360,7 @@
         <v>353</v>
       </c>
       <c r="C72" t="s">
-        <v>431</v>
+        <v>516</v>
       </c>
       <c r="D72" t="s">
         <v>194</v>
@@ -3380,7 +3377,7 @@
         <v>353</v>
       </c>
       <c r="C73" t="s">
-        <v>419</v>
+        <v>517</v>
       </c>
       <c r="D73" t="s">
         <v>155</v>
@@ -3397,7 +3394,7 @@
         <v>358</v>
       </c>
       <c r="C74" t="s">
-        <v>413</v>
+        <v>518</v>
       </c>
       <c r="D74" t="s">
         <v>129</v>
@@ -3414,7 +3411,7 @@
         <v>353</v>
       </c>
       <c r="C75" t="s">
-        <v>400</v>
+        <v>519</v>
       </c>
       <c r="D75" t="s">
         <v>75</v>
@@ -3431,7 +3428,7 @@
         <v>359</v>
       </c>
       <c r="C76" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="D76" t="s">
         <v>320</v>
@@ -3448,7 +3445,7 @@
         <v>364</v>
       </c>
       <c r="C77" t="s">
-        <v>449</v>
+        <v>521</v>
       </c>
       <c r="D77" t="s">
         <v>258</v>
@@ -3459,19 +3456,19 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>531</v>
+        <v>426</v>
       </c>
       <c r="B78" t="s">
-        <v>525</v>
+        <v>420</v>
       </c>
       <c r="C78" t="s">
-        <v>554</v>
+        <v>522</v>
       </c>
       <c r="D78" t="s">
-        <v>532</v>
+        <v>427</v>
       </c>
       <c r="E78" t="s">
-        <v>533</v>
+        <v>428</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3482,7 +3479,7 @@
         <v>355</v>
       </c>
       <c r="C79" t="s">
-        <v>398</v>
+        <v>523</v>
       </c>
       <c r="D79" t="s">
         <v>66</v>
@@ -3499,7 +3496,7 @@
         <v>358</v>
       </c>
       <c r="C80" t="s">
-        <v>414</v>
+        <v>524</v>
       </c>
       <c r="D80" t="s">
         <v>132</v>
@@ -3516,7 +3513,7 @@
         <v>353</v>
       </c>
       <c r="C81" t="s">
-        <v>396</v>
+        <v>525</v>
       </c>
       <c r="D81" t="s">
         <v>60</v>
@@ -3533,7 +3530,7 @@
         <v>353</v>
       </c>
       <c r="C82" t="s">
-        <v>397</v>
+        <v>526</v>
       </c>
       <c r="D82" t="s">
         <v>63</v>
@@ -3550,7 +3547,7 @@
         <v>356</v>
       </c>
       <c r="C83" t="s">
-        <v>401</v>
+        <v>527</v>
       </c>
       <c r="D83" t="s">
         <v>78</v>
@@ -3567,7 +3564,7 @@
         <v>356</v>
       </c>
       <c r="C84" t="s">
-        <v>401</v>
+        <v>527</v>
       </c>
       <c r="D84" t="s">
         <v>78</v>
@@ -3584,7 +3581,7 @@
         <v>371</v>
       </c>
       <c r="C85" t="s">
-        <v>401</v>
+        <v>527</v>
       </c>
       <c r="D85" t="s">
         <v>78</v>
@@ -3601,7 +3598,7 @@
         <v>353</v>
       </c>
       <c r="C86" t="s">
-        <v>381</v>
+        <v>528</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
@@ -3618,7 +3615,7 @@
         <v>357</v>
       </c>
       <c r="C87" t="s">
-        <v>447</v>
+        <v>529</v>
       </c>
       <c r="D87" t="s">
         <v>249</v>
@@ -3635,7 +3632,7 @@
         <v>353</v>
       </c>
       <c r="C88" t="s">
-        <v>443</v>
+        <v>530</v>
       </c>
       <c r="D88" t="s">
         <v>237</v>
@@ -3646,19 +3643,19 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>569</v>
+        <v>452</v>
       </c>
       <c r="B89" t="s">
-        <v>570</v>
+        <v>453</v>
       </c>
       <c r="C89" t="s">
-        <v>578</v>
+        <v>458</v>
       </c>
       <c r="D89" t="s">
-        <v>571</v>
+        <v>454</v>
       </c>
       <c r="E89" t="s">
-        <v>572</v>
+        <v>455</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3669,7 +3666,7 @@
         <v>360</v>
       </c>
       <c r="C90" t="s">
-        <v>427</v>
+        <v>531</v>
       </c>
       <c r="D90" t="s">
         <v>182</v>
@@ -3686,7 +3683,7 @@
         <v>353</v>
       </c>
       <c r="C91" t="s">
-        <v>417</v>
+        <v>532</v>
       </c>
       <c r="D91" t="s">
         <v>146</v>
@@ -3697,19 +3694,19 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>573</v>
+        <v>456</v>
       </c>
       <c r="B92" t="s">
-        <v>570</v>
+        <v>453</v>
       </c>
       <c r="C92" t="s">
-        <v>579</v>
+        <v>533</v>
       </c>
       <c r="D92" t="s">
         <v>158</v>
       </c>
       <c r="E92" t="s">
-        <v>574</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3720,7 +3717,7 @@
         <v>353</v>
       </c>
       <c r="C93" t="s">
-        <v>420</v>
+        <v>533</v>
       </c>
       <c r="D93" t="s">
         <v>158</v>
@@ -3737,7 +3734,7 @@
         <v>353</v>
       </c>
       <c r="C94" t="s">
-        <v>444</v>
+        <v>534</v>
       </c>
       <c r="D94" t="s">
         <v>240</v>
@@ -3754,7 +3751,7 @@
         <v>368</v>
       </c>
       <c r="C95" t="s">
-        <v>455</v>
+        <v>535</v>
       </c>
       <c r="D95" t="s">
         <v>276</v>
@@ -3771,7 +3768,7 @@
         <v>356</v>
       </c>
       <c r="C96" t="s">
-        <v>455</v>
+        <v>535</v>
       </c>
       <c r="D96" t="s">
         <v>276</v>
@@ -3788,7 +3785,7 @@
         <v>370</v>
       </c>
       <c r="C97" t="s">
-        <v>461</v>
+        <v>536</v>
       </c>
       <c r="D97" t="s">
         <v>298</v>
@@ -3805,7 +3802,7 @@
         <v>353</v>
       </c>
       <c r="C98" t="s">
-        <v>416</v>
+        <v>537</v>
       </c>
       <c r="D98" t="s">
         <v>140</v>
@@ -3822,7 +3819,7 @@
         <v>353</v>
       </c>
       <c r="C99" t="s">
-        <v>391</v>
+        <v>538</v>
       </c>
       <c r="D99" t="s">
         <v>40</v>
@@ -3839,7 +3836,7 @@
         <v>359</v>
       </c>
       <c r="C100" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
       <c r="D100" t="s">
         <v>323</v>
@@ -3850,19 +3847,19 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>565</v>
+        <v>448</v>
       </c>
       <c r="B101" t="s">
-        <v>566</v>
+        <v>449</v>
       </c>
       <c r="C101" t="s">
-        <v>577</v>
+        <v>460</v>
       </c>
       <c r="D101" t="s">
-        <v>567</v>
+        <v>450</v>
       </c>
       <c r="E101" t="s">
-        <v>568</v>
+        <v>451</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3873,7 +3870,7 @@
         <v>353</v>
       </c>
       <c r="C102" t="s">
-        <v>424</v>
+        <v>540</v>
       </c>
       <c r="D102" t="s">
         <v>173</v>
@@ -3890,7 +3887,7 @@
         <v>353</v>
       </c>
       <c r="C103" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="D103" t="s">
         <v>213</v>
@@ -3907,7 +3904,7 @@
         <v>372</v>
       </c>
       <c r="C104" t="s">
-        <v>462</v>
+        <v>542</v>
       </c>
       <c r="D104" t="s">
         <v>302</v>
@@ -3924,7 +3921,7 @@
         <v>353</v>
       </c>
       <c r="C105" t="s">
-        <v>408</v>
+        <v>543</v>
       </c>
       <c r="D105" t="s">
         <v>114</v>
@@ -3941,7 +3938,7 @@
         <v>353</v>
       </c>
       <c r="C106" t="s">
-        <v>388</v>
+        <v>544</v>
       </c>
       <c r="D106" t="s">
         <v>31</v>
@@ -3952,19 +3949,19 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>534</v>
+        <v>429</v>
       </c>
       <c r="B107" t="s">
-        <v>535</v>
+        <v>430</v>
       </c>
       <c r="C107" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="D107" t="s">
-        <v>537</v>
+        <v>432</v>
       </c>
       <c r="E107" t="s">
-        <v>536</v>
+        <v>431</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3975,7 +3972,7 @@
         <v>361</v>
       </c>
       <c r="C108" t="s">
-        <v>446</v>
+        <v>546</v>
       </c>
       <c r="D108" t="s">
         <v>245</v>
@@ -3992,7 +3989,7 @@
         <v>353</v>
       </c>
       <c r="C109" t="s">
-        <v>410</v>
+        <v>547</v>
       </c>
       <c r="D109" t="s">
         <v>120</v>
@@ -4009,7 +4006,7 @@
         <v>356</v>
       </c>
       <c r="C110" t="s">
-        <v>458</v>
+        <v>548</v>
       </c>
       <c r="D110" t="s">
         <v>289</v>
@@ -4026,7 +4023,7 @@
         <v>365</v>
       </c>
       <c r="C111" t="s">
-        <v>451</v>
+        <v>549</v>
       </c>
       <c r="D111" t="s">
         <v>264</v>
@@ -4043,7 +4040,7 @@
         <v>356</v>
       </c>
       <c r="C112" t="s">
-        <v>457</v>
+        <v>550</v>
       </c>
       <c r="D112" t="s">
         <v>285</v>
@@ -4060,7 +4057,7 @@
         <v>353</v>
       </c>
       <c r="C113" t="s">
-        <v>488</v>
+        <v>384</v>
       </c>
       <c r="D113" t="s">
         <v>161</v>
@@ -4077,7 +4074,7 @@
         <v>353</v>
       </c>
       <c r="C114" t="s">
-        <v>440</v>
+        <v>551</v>
       </c>
       <c r="D114" t="s">
         <v>228</v>
@@ -4094,7 +4091,7 @@
         <v>378</v>
       </c>
       <c r="C115" t="s">
-        <v>474</v>
+        <v>552</v>
       </c>
       <c r="D115" t="s">
         <v>342</v>
@@ -4111,7 +4108,7 @@
         <v>353</v>
       </c>
       <c r="C116" t="s">
-        <v>389</v>
+        <v>553</v>
       </c>
       <c r="D116" t="s">
         <v>34</v>
@@ -4125,13 +4122,13 @@
         <v>204</v>
       </c>
       <c r="B117" t="s">
-        <v>489</v>
+        <v>385</v>
       </c>
       <c r="C117" t="s">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="D117" t="s">
-        <v>490</v>
+        <v>386</v>
       </c>
       <c r="E117" t="s">
         <v>205</v>
@@ -4145,7 +4142,7 @@
         <v>353</v>
       </c>
       <c r="C118" t="s">
-        <v>399</v>
+        <v>555</v>
       </c>
       <c r="D118" t="s">
         <v>69</v>
@@ -4162,7 +4159,7 @@
         <v>379</v>
       </c>
       <c r="C119" t="s">
-        <v>476</v>
+        <v>556</v>
       </c>
       <c r="D119" t="s">
         <v>348</v>
@@ -4179,7 +4176,7 @@
         <v>356</v>
       </c>
       <c r="C120" t="s">
-        <v>456</v>
+        <v>557</v>
       </c>
       <c r="D120" t="s">
         <v>282</v>
@@ -4196,7 +4193,7 @@
         <v>353</v>
       </c>
       <c r="C121" t="s">
-        <v>477</v>
+        <v>558</v>
       </c>
       <c r="D121" t="s">
         <v>72</v>
@@ -4207,138 +4204,138 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>498</v>
+        <v>393</v>
       </c>
       <c r="B122" t="s">
-        <v>499</v>
+        <v>394</v>
       </c>
       <c r="C122" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="D122" t="s">
-        <v>500</v>
+        <v>395</v>
       </c>
       <c r="E122" t="s">
-        <v>501</v>
+        <v>396</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>505</v>
+        <v>400</v>
       </c>
       <c r="B123" t="s">
-        <v>506</v>
+        <v>401</v>
       </c>
       <c r="C123" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="D123" t="s">
-        <v>507</v>
+        <v>402</v>
       </c>
       <c r="E123" t="s">
-        <v>508</v>
+        <v>403</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>509</v>
+        <v>404</v>
       </c>
       <c r="B124" t="s">
-        <v>510</v>
+        <v>405</v>
       </c>
       <c r="C124" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="D124" t="s">
-        <v>511</v>
+        <v>406</v>
       </c>
       <c r="E124" t="s">
-        <v>512</v>
+        <v>407</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>513</v>
+        <v>408</v>
       </c>
       <c r="B125" t="s">
-        <v>514</v>
+        <v>409</v>
       </c>
       <c r="C125" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="D125" t="s">
-        <v>515</v>
+        <v>410</v>
       </c>
       <c r="E125" t="s">
-        <v>516</v>
+        <v>411</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>517</v>
+        <v>412</v>
       </c>
       <c r="B126" t="s">
-        <v>518</v>
+        <v>413</v>
       </c>
       <c r="C126" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="D126" t="s">
-        <v>519</v>
+        <v>414</v>
       </c>
       <c r="E126" t="s">
-        <v>520</v>
+        <v>415</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>521</v>
+        <v>416</v>
       </c>
       <c r="B127" t="s">
-        <v>518</v>
+        <v>413</v>
       </c>
       <c r="C127" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="D127" t="s">
-        <v>522</v>
+        <v>417</v>
       </c>
       <c r="E127" t="s">
-        <v>523</v>
+        <v>418</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>524</v>
+        <v>419</v>
       </c>
       <c r="B128" t="s">
-        <v>525</v>
+        <v>420</v>
       </c>
       <c r="C128" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="D128" t="s">
-        <v>526</v>
+        <v>421</v>
       </c>
       <c r="E128" t="s">
-        <v>527</v>
+        <v>422</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>528</v>
+        <v>423</v>
       </c>
       <c r="B129" t="s">
-        <v>525</v>
+        <v>420</v>
       </c>
       <c r="C129" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="D129" t="s">
-        <v>529</v>
+        <v>424</v>
       </c>
       <c r="E129" t="s">
-        <v>530</v>
+        <v>425</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -4349,7 +4346,7 @@
         <v>353</v>
       </c>
       <c r="C130" t="s">
-        <v>478</v>
+        <v>567</v>
       </c>
       <c r="D130" t="s">
         <v>84</v>
@@ -4366,7 +4363,7 @@
         <v>353</v>
       </c>
       <c r="C131" t="s">
-        <v>479</v>
+        <v>568</v>
       </c>
       <c r="D131" t="s">
         <v>87</v>
@@ -4383,7 +4380,7 @@
         <v>353</v>
       </c>
       <c r="C132" t="s">
-        <v>480</v>
+        <v>569</v>
       </c>
       <c r="D132" t="s">
         <v>90</v>
@@ -4400,7 +4397,7 @@
         <v>353</v>
       </c>
       <c r="C133" t="s">
-        <v>481</v>
+        <v>570</v>
       </c>
       <c r="D133" t="s">
         <v>93</v>
@@ -4417,7 +4414,7 @@
         <v>353</v>
       </c>
       <c r="C134" t="s">
-        <v>482</v>
+        <v>571</v>
       </c>
       <c r="D134" t="s">
         <v>96</v>
@@ -4434,7 +4431,7 @@
         <v>353</v>
       </c>
       <c r="C135" t="s">
-        <v>483</v>
+        <v>572</v>
       </c>
       <c r="D135" t="s">
         <v>96</v>
@@ -4451,7 +4448,7 @@
         <v>380</v>
       </c>
       <c r="C136" t="s">
-        <v>492</v>
+        <v>387</v>
       </c>
       <c r="D136" t="s">
         <v>351</v>
@@ -4462,19 +4459,19 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>493</v>
+        <v>388</v>
       </c>
       <c r="B137" t="s">
-        <v>494</v>
+        <v>389</v>
       </c>
       <c r="C137" t="s">
-        <v>497</v>
+        <v>392</v>
       </c>
       <c r="D137" t="s">
-        <v>495</v>
+        <v>390</v>
       </c>
       <c r="E137" t="s">
-        <v>496</v>
+        <v>391</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4485,7 +4482,7 @@
         <v>353</v>
       </c>
       <c r="C138" t="s">
-        <v>409</v>
+        <v>573</v>
       </c>
       <c r="D138" t="s">
         <v>117</v>
@@ -4502,7 +4499,7 @@
         <v>353</v>
       </c>
       <c r="C139" t="s">
-        <v>436</v>
+        <v>574</v>
       </c>
       <c r="D139" t="s">
         <v>216</v>
@@ -4519,7 +4516,7 @@
         <v>353</v>
       </c>
       <c r="C140" t="s">
-        <v>411</v>
+        <v>575</v>
       </c>
       <c r="D140" t="s">
         <v>123</v>
@@ -4536,7 +4533,7 @@
         <v>353</v>
       </c>
       <c r="C141" t="s">
-        <v>407</v>
+        <v>576</v>
       </c>
       <c r="D141" t="s">
         <v>111</v>
@@ -4553,7 +4550,7 @@
         <v>353</v>
       </c>
       <c r="C142" t="s">
-        <v>403</v>
+        <v>577</v>
       </c>
       <c r="D142" t="s">
         <v>99</v>
@@ -4570,7 +4567,7 @@
         <v>356</v>
       </c>
       <c r="C143" t="s">
-        <v>403</v>
+        <v>577</v>
       </c>
       <c r="D143" t="s">
         <v>99</v>
@@ -4587,7 +4584,7 @@
         <v>356</v>
       </c>
       <c r="C144" t="s">
-        <v>403</v>
+        <v>577</v>
       </c>
       <c r="D144" t="s">
         <v>99</v>
@@ -4598,19 +4595,19 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>562</v>
+        <v>445</v>
       </c>
       <c r="B145" t="s">
-        <v>559</v>
+        <v>442</v>
       </c>
       <c r="C145" t="s">
-        <v>576</v>
+        <v>459</v>
       </c>
       <c r="D145" t="s">
-        <v>563</v>
+        <v>446</v>
       </c>
       <c r="E145" t="s">
-        <v>564</v>
+        <v>447</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -4621,7 +4618,7 @@
         <v>358</v>
       </c>
       <c r="C146" t="s">
-        <v>442</v>
+        <v>578</v>
       </c>
       <c r="D146" t="s">
         <v>234</v>
